--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="363">
   <si>
     <t>Easy</t>
   </si>
@@ -2467,6 +2467,14 @@
   </si>
   <si>
     <t>遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求组合，与求排列类似</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是递归调用，注意如何写调用过程，以及什么是退出条件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2873,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4563,12 +4571,15 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="3">
@@ -4576,6 +4587,9 @@
       </c>
       <c r="F77" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="I77" s="1"/>
     </row>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="366">
   <si>
     <t>Easy</t>
   </si>
@@ -2475,6 +2475,18 @@
   </si>
   <si>
     <t>都是递归调用，注意如何写调用过程，以及什么是退出条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求子集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位操作解法，一个长度为len的数组，其子集的个数为2^n，每一个数代表一个子集，每一位代表数组当前下标元素在不在集合内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归调用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2881,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4593,12 +4605,15 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="3">
@@ -4606,6 +4621,12 @@
       </c>
       <c r="F78" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="I78" s="1"/>
     </row>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="369">
   <si>
     <t>Easy</t>
   </si>
@@ -2487,6 +2487,20 @@
   </si>
   <si>
     <t>递归调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在2D的矩阵中是否存在字符串匹配的字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归解决，递归条件就是长度等于待匹配的字符串
+注意各种边界，是否访问过等
+上下左右四个字符是否与字符串匹配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需额外空间存储，巧妙地运用了异或操作，对于访问过的字符，通过异或来表示它被访问过，再异或恢复原值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2894,7 +2908,7 @@
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4630,12 +4644,15 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3">
@@ -4643,6 +4660,12 @@
       </c>
       <c r="F79" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="I79" s="1"/>
     </row>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="370">
   <si>
     <t>Easy</t>
   </si>
@@ -2117,14 +2117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>简单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移除等于特定值的元素，返回新长度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2501,6 +2493,22 @@
   </si>
   <si>
     <t>不需额外空间存储，巧妙地运用了异或操作，对于访问过的字符，通过异或来表示它被访问过，再异或恢复原值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后开始判断当前元素与后一个元素是否相等，如果相等计数加1，否则判断计数是否大于2，大于2的话就开始移数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机智做法，遍历数组，做一个计数器，如果计数器小于2,或者当前位置的元素大于计数器-2位置的元素，则赋值当前元素。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int i = 0;
+for (int n : nums)
+ if (i &lt; 2 || n &gt; nums[i - 2])
+  nums[i++] = n;
+return i;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2907,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2920,7 +2928,7 @@
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
@@ -2948,13 +2956,8 @@
       <c r="H1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="1">
-        <f>COUNTIF(F1:F200,"Easy")</f>
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
@@ -2978,13 +2981,7 @@
       <c r="H2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="1">
-        <f>COUNTIF(F1:F200,"Medium")</f>
-        <v>105</v>
-      </c>
-      <c r="J2" t="s">
-        <v>275</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
@@ -3555,7 +3552,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3">
@@ -3565,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -3580,7 +3577,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3">
@@ -3590,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -3602,7 +3599,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3">
@@ -3612,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -3643,7 +3640,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3">
@@ -3653,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -3681,7 +3678,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3">
@@ -3700,7 +3697,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3">
@@ -3710,10 +3707,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -3725,7 +3722,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3">
@@ -3735,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -3747,7 +3744,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3">
@@ -3757,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -3785,7 +3782,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3">
@@ -3795,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -3810,7 +3807,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3">
@@ -3820,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -3832,7 +3829,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3">
@@ -3842,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -3886,7 +3883,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3">
@@ -3896,10 +3893,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -3943,7 +3940,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3">
@@ -3953,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I46" s="1"/>
     </row>
@@ -3965,7 +3962,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3">
@@ -3975,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -3990,7 +3987,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3">
@@ -4000,10 +3997,10 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I48" s="1"/>
     </row>
@@ -4022,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -4034,7 +4031,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3">
@@ -4044,10 +4041,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -4091,7 +4088,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3">
@@ -4101,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I53" s="1"/>
     </row>
@@ -4113,7 +4110,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3">
@@ -4123,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -4138,7 +4135,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="3">
@@ -4148,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -4160,7 +4157,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3">
@@ -4170,10 +4167,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I56" s="1"/>
     </row>
@@ -4201,7 +4198,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="3">
@@ -4211,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I58" s="1"/>
     </row>
@@ -4239,7 +4236,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="3">
@@ -4249,10 +4246,10 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I60" s="1"/>
     </row>
@@ -4264,7 +4261,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3">
@@ -4274,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I61" s="1"/>
     </row>
@@ -4286,7 +4283,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="3">
@@ -4296,13 +4293,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
@@ -4313,7 +4310,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="3">
@@ -4323,13 +4320,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -4347,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I64" s="1"/>
     </row>
@@ -4385,10 +4382,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I66" s="1"/>
     </row>
@@ -4400,7 +4397,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="3">
@@ -4410,10 +4407,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I67" s="1"/>
     </row>
@@ -4448,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I69" s="1"/>
     </row>
@@ -4460,7 +4457,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="3">
@@ -4470,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I70" s="1"/>
     </row>
@@ -4482,7 +4479,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="3">
@@ -4492,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I71" s="1"/>
     </row>
@@ -4527,10 +4524,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -4549,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I74" s="1"/>
     </row>
@@ -4564,7 +4561,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="3">
@@ -4574,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4605,7 +4602,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="3">
@@ -4615,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4627,7 +4624,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="3">
@@ -4637,10 +4634,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4652,7 +4649,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3">
@@ -4662,14 +4659,14 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4683,7 +4680,15 @@
       <c r="F80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
@@ -4732,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I83" s="1"/>
     </row>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="371">
   <si>
     <t>Easy</t>
   </si>
@@ -2455,10 +2455,6 @@
   <si>
     <t xml:space="preserve">还有计数的方法，一次遍历得到0、1和2的个数，再遍历一遍赋值；
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2509,6 +2505,14 @@
  if (i &lt; 2 || n &gt; nums[i - 2])
   nums[i++] = n;
 return i;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果A[start] &lt;= A[mid] 条件就不能确定[start，mid]区间为递增有序序列，我们就把该条件分成两个子条件：A[start] &lt; A[mid]， 则 [start，mid]区间为递增有序序列。A[start] = A[mid]，则[start，mid]区间不能确定，那就start++，往下一步看看即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在旋转有序数组中查找元素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2519,7 +2523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2556,6 +2560,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2580,7 +2591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2597,6 +2608,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2915,23 +2929,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2959,7 +2973,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="40.5">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2983,7 +2997,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="54">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3007,7 +3021,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="27">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3031,7 +3045,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="40.5">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3055,7 +3069,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="121.5">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3079,7 +3093,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="135">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3104,7 +3118,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="67.5">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -3131,7 +3145,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="67.5">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3156,7 +3170,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -3175,7 +3189,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="81">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3197,7 +3211,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="108">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3222,7 +3236,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="27">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3244,7 +3258,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="81">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3269,7 +3283,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="162" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="162">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3291,7 +3305,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="54">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3313,7 +3327,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="40.5">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3362,7 +3376,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="81">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -3387,7 +3401,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="121.5">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3406,7 +3420,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="27">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3431,7 +3445,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="121.5">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3453,7 +3467,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="67.5">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3478,7 +3492,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="40.5">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3503,7 +3517,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="27">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3519,7 +3533,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="27">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3544,7 +3558,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="54">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3569,7 +3583,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="135">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3591,7 +3605,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="54">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -3616,7 +3630,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="40.5">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -3632,7 +3646,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="108">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -3654,7 +3668,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="27">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3670,7 +3684,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="27">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3689,7 +3703,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="67.5">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3714,7 +3728,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="40.5">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -3736,7 +3750,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="40.5">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -3758,7 +3772,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -3774,7 +3788,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="81">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -3799,7 +3813,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -3821,7 +3835,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="54">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -3843,7 +3857,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="27">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -3859,7 +3873,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -3875,7 +3889,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="54">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -3900,7 +3914,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -3916,7 +3930,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -3932,7 +3946,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="67.5">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -3954,7 +3968,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="162">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -3979,7 +3993,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="27">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -4004,7 +4018,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="121.5">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -4023,7 +4037,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="54">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4048,7 +4062,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -4064,7 +4078,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -4080,7 +4094,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="27">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -4102,7 +4116,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="94.5">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -4127,7 +4141,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="27">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -4149,7 +4163,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="27">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -4174,7 +4188,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -4190,7 +4204,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="40.5">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -4212,7 +4226,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -4228,7 +4242,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="202.5">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -4253,7 +4267,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -4275,7 +4289,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="27">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -4302,7 +4316,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="148.5">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -4351,7 +4365,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -4367,7 +4381,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="94.5">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -4389,7 +4403,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="27">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -4414,7 +4428,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -4430,7 +4444,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="54">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -4449,7 +4463,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="81">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -4471,7 +4485,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="54">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -4493,7 +4507,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -4509,7 +4523,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="54">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -4531,7 +4545,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="27">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4553,7 +4567,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="162">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4578,7 +4592,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="27">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -4594,7 +4608,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="54">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -4602,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="3">
@@ -4612,11 +4626,11 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="108">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -4624,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="3">
@@ -4634,14 +4648,14 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="121.5">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -4649,7 +4663,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3">
@@ -4659,14 +4673,14 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="108">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4681,21 +4695,24 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:9" ht="135">
       <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="3">
@@ -4704,9 +4721,12 @@
       <c r="F81" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="27">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -4720,9 +4740,10 @@
       <c r="F82" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G82" s="7"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="27">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -4736,12 +4757,10 @@
       <c r="F83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="G83" s="7"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="27">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -4757,7 +4776,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -4773,7 +4792,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -4789,7 +4808,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -4805,7 +4824,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -4821,7 +4840,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -4837,7 +4856,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -4853,7 +4872,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -4869,7 +4888,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="27">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -4885,7 +4904,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -4901,7 +4920,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="27">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -4917,7 +4936,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="27">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -4933,7 +4952,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="27">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -4949,7 +4968,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -4965,7 +4984,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="27">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -4981,7 +5000,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="27">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -4997,7 +5016,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5013,7 +5032,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -5029,7 +5048,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="27">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -5045,7 +5064,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="27">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -5061,7 +5080,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="27">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -5077,7 +5096,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="40.5">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -5093,7 +5112,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="40.5">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -5109,7 +5128,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="27">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -5125,7 +5144,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="27">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -5141,7 +5160,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="27">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -5157,7 +5176,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -5173,7 +5192,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="27">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -5189,7 +5208,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -5205,7 +5224,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -5221,7 +5240,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="27">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -5237,7 +5256,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="27">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -5253,7 +5272,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="40.5">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -5269,7 +5288,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="40.5">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -5285,7 +5304,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -5301,7 +5320,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -5317,7 +5336,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -5333,7 +5352,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="27">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -5349,7 +5368,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="27">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -5365,7 +5384,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="27">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -5381,7 +5400,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="27">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -5397,7 +5416,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -5413,7 +5432,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -5429,7 +5448,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -5445,7 +5464,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="27">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -5461,7 +5480,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="27">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -5477,7 +5496,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -5493,7 +5512,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="27">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -5509,7 +5528,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="27">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -5525,7 +5544,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -5541,7 +5560,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -5557,7 +5576,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -5573,7 +5592,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -5589,7 +5608,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -5605,7 +5624,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="94.5">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -5648,7 +5667,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -5664,7 +5683,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -5680,7 +5699,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -5696,7 +5715,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -5712,7 +5731,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="27">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -5728,7 +5747,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="27">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -5744,7 +5763,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -5760,7 +5779,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -5776,7 +5795,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -5792,7 +5811,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -5808,7 +5827,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="27">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -5824,7 +5843,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="27">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -5840,7 +5859,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="27">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -5856,7 +5875,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="27">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -5872,7 +5891,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="27">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -5888,7 +5907,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -5904,7 +5923,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="27">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -5920,7 +5939,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="27">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -5936,7 +5955,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="40.5">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -5952,7 +5971,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="40.5">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -5968,7 +5987,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="27">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -5984,7 +6003,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -6000,7 +6019,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -6016,7 +6035,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -6032,7 +6051,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -6048,7 +6067,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="27">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -6064,7 +6083,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="27">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -6080,7 +6099,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="27">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -6096,7 +6115,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="27">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -6112,7 +6131,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -6128,7 +6147,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="27">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -6144,7 +6163,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="27">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -6160,7 +6179,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="27">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -6176,7 +6195,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="27">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -6192,7 +6211,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -6208,7 +6227,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9">
       <c r="A175" s="1">
         <v>179</v>
       </c>
@@ -6224,7 +6243,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="27">
       <c r="A176" s="1">
         <v>186</v>
       </c>
@@ -6240,7 +6259,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="27">
       <c r="A177" s="1">
         <v>187</v>
       </c>
@@ -6256,7 +6275,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="27">
       <c r="A178" s="1">
         <v>188</v>
       </c>
@@ -6272,7 +6291,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>189</v>
       </c>
@@ -6288,7 +6307,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>190</v>
       </c>
@@ -6304,7 +6323,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>191</v>
       </c>
@@ -6320,7 +6339,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>198</v>
       </c>
@@ -6336,7 +6355,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="27">
       <c r="A183" s="1">
         <v>199</v>
       </c>
@@ -6352,7 +6371,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>200</v>
       </c>
@@ -6368,7 +6387,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="27">
       <c r="A185" s="1">
         <v>201</v>
       </c>
@@ -6384,7 +6403,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>202</v>
       </c>
@@ -6400,7 +6419,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="27">
       <c r="A187" s="1">
         <v>203</v>
       </c>
@@ -6416,7 +6435,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9">
       <c r="A188" s="1">
         <v>204</v>
       </c>
@@ -6432,7 +6451,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9">
       <c r="A189" s="1">
         <v>205</v>
       </c>
@@ -6448,7 +6467,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9">
       <c r="A190" s="1">
         <v>206</v>
       </c>
@@ -6464,7 +6483,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9">
       <c r="A191" s="1">
         <v>207</v>
       </c>
@@ -6480,7 +6499,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="27">
       <c r="A192" s="1">
         <v>208</v>
       </c>
@@ -6496,7 +6515,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="27">
       <c r="A193" s="1">
         <v>209</v>
       </c>
@@ -6512,7 +6531,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9">
       <c r="A194" s="1">
         <v>210</v>
       </c>
@@ -6528,7 +6547,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="40.5">
       <c r="A195" s="1">
         <v>211</v>
       </c>
@@ -6544,7 +6563,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9">
       <c r="A196" s="1">
         <v>212</v>
       </c>
@@ -6560,7 +6579,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9">
       <c r="A197" s="1">
         <v>213</v>
       </c>
@@ -6576,7 +6595,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9">
       <c r="A198" s="1">
         <v>214</v>
       </c>
@@ -6592,7 +6611,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="27">
       <c r="A199" s="1">
         <v>215</v>
       </c>
@@ -6608,7 +6627,7 @@
       </c>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9">
       <c r="A200" s="1">
         <v>216</v>
       </c>
@@ -6624,7 +6643,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9">
       <c r="A201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="3"/>
@@ -6645,7 +6664,7 @@
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6658,7 +6677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
   <si>
     <t>Two Sum   </t>
   </si>
@@ -1595,6 +1595,14 @@
   </si>
   <si>
     <t>Spiral Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割List，使得前半部分为小于x的，后半部分为大于等于x的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置两个头，一个记录小于x的，一个记录大于等于x的，然后遍历判断。最后一定记得把more.next设为null,否则链表会成环，导致死循环</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:G79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2133,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2146,7 +2154,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2194,7 +2202,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2248,7 +2256,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2264,7 +2272,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2368,7 +2376,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2470,7 +2478,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2554,7 +2562,7 @@
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2847,7 +2855,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2972,7 +2980,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2993,7 +3001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -3217,7 +3225,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -3236,7 +3244,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -3318,14 +3326,20 @@
       <c r="D85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="C86" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3838,7 +3852,7 @@
       <c r="D137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
   <si>
     <t>Two Sum   </t>
   </si>
@@ -1603,6 +1603,34 @@
   </si>
   <si>
     <t>设置两个头，一个记录小于x的，一个记录大于等于x的，然后遍历判断。最后一定记得把more.next设为null,否则链表会成环，导致死循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好是从后面开始复制，不用移动太多元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格雷码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧妙地用异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带重复数字的数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在加入结果时，判断是否已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在移除之后就判断是不是重复数字，如果是，则跳过就可以了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1988,21 +2016,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -2024,7 +2052,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2042,7 +2070,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2060,7 +2088,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2078,7 +2106,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2096,7 +2124,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2114,7 +2142,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2133,7 +2161,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2154,7 +2182,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2173,7 +2201,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2186,7 +2214,7 @@
       <c r="D10" s="3"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2202,7 +2230,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2221,7 +2249,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2237,7 +2265,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2256,7 +2284,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2272,7 +2300,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2288,7 +2316,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2309,7 +2337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2325,7 +2353,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2344,7 +2372,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2357,7 +2385,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2376,7 +2404,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2392,7 +2420,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2411,7 +2439,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2430,7 +2458,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2440,7 +2468,7 @@
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2459,7 +2487,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2478,7 +2506,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2494,7 +2522,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2513,7 +2541,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2523,7 +2551,7 @@
       <c r="D30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2539,7 +2567,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -2549,7 +2577,7 @@
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2562,7 +2590,7 @@
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2581,7 +2609,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2597,7 +2625,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -2613,7 +2641,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -2623,7 +2651,7 @@
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -2642,7 +2670,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -2658,7 +2686,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -2674,7 +2702,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -2684,7 +2712,7 @@
       <c r="D41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -2694,7 +2722,7 @@
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -2713,7 +2741,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -2723,7 +2751,7 @@
       <c r="D44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -2733,7 +2761,7 @@
       <c r="D45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -2749,7 +2777,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -2768,7 +2796,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -2787,7 +2815,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -2800,7 +2828,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2819,7 +2847,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2829,7 +2857,7 @@
       <c r="D51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -2839,7 +2867,7 @@
       <c r="D52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -2855,7 +2883,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -2874,7 +2902,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2890,7 +2918,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -2909,7 +2937,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -2919,7 +2947,7 @@
       <c r="D57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2935,7 +2963,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -2945,7 +2973,7 @@
       <c r="D59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -2964,7 +2992,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -2980,7 +3008,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -3001,7 +3029,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -3022,7 +3050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -3038,7 +3066,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -3048,7 +3076,7 @@
       <c r="D65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -3064,7 +3092,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -3083,7 +3111,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -3093,7 +3121,7 @@
       <c r="D68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -3106,7 +3134,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -3122,7 +3150,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -3138,7 +3166,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -3148,7 +3176,7 @@
       <c r="D72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -3164,7 +3192,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -3180,7 +3208,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -3199,7 +3227,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -3209,7 +3237,7 @@
       <c r="D76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -3225,7 +3253,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -3244,7 +3272,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -3263,7 +3291,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -3273,7 +3301,7 @@
       <c r="D80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -3283,7 +3311,7 @@
       <c r="D81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -3293,7 +3321,7 @@
       <c r="D82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -3306,7 +3334,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -3316,7 +3344,7 @@
       <c r="D84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -3326,7 +3354,7 @@
       <c r="D85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -3342,7 +3370,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3352,37 +3380,58 @@
       <c r="D87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="C89" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="C90" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -3392,7 +3441,7 @@
       <c r="D91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -3402,7 +3451,7 @@
       <c r="D92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -3412,7 +3461,7 @@
       <c r="D93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -3422,7 +3471,7 @@
       <c r="D94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -3432,7 +3481,7 @@
       <c r="D95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -3442,7 +3491,7 @@
       <c r="D96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -3452,7 +3501,7 @@
       <c r="D97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -3462,7 +3511,7 @@
       <c r="D98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -3472,7 +3521,7 @@
       <c r="D99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -3482,7 +3531,7 @@
       <c r="D100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -3492,7 +3541,7 @@
       <c r="D101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -3502,7 +3551,7 @@
       <c r="D102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -3512,7 +3561,7 @@
       <c r="D103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -3522,7 +3571,7 @@
       <c r="D104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -3532,7 +3581,7 @@
       <c r="D105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -3542,7 +3591,7 @@
       <c r="D106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -3552,7 +3601,7 @@
       <c r="D107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -3562,7 +3611,7 @@
       <c r="D108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -3572,7 +3621,7 @@
       <c r="D109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -3582,7 +3631,7 @@
       <c r="D110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -3592,7 +3641,7 @@
       <c r="D111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -3602,7 +3651,7 @@
       <c r="D112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -3612,7 +3661,7 @@
       <c r="D113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -3622,7 +3671,7 @@
       <c r="D114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -3632,7 +3681,7 @@
       <c r="D115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -3642,7 +3691,7 @@
       <c r="D116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -3652,7 +3701,7 @@
       <c r="D117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -3662,7 +3711,7 @@
       <c r="D118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -3672,7 +3721,7 @@
       <c r="D119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -3682,7 +3731,7 @@
       <c r="D120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -3692,7 +3741,7 @@
       <c r="D121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -3702,7 +3751,7 @@
       <c r="D122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -3712,7 +3761,7 @@
       <c r="D123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -3722,7 +3771,7 @@
       <c r="D124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -3732,7 +3781,7 @@
       <c r="D125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -3742,7 +3791,7 @@
       <c r="D126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -3752,7 +3801,7 @@
       <c r="D127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -3762,7 +3811,7 @@
       <c r="D128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -3772,7 +3821,7 @@
       <c r="D129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -3782,7 +3831,7 @@
       <c r="D130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -3792,7 +3841,7 @@
       <c r="D131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -3802,7 +3851,7 @@
       <c r="D132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -3812,7 +3861,7 @@
       <c r="D133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -3822,7 +3871,7 @@
       <c r="D134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -3832,7 +3881,7 @@
       <c r="D135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -3842,7 +3891,7 @@
       <c r="D136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -3852,7 +3901,7 @@
       <c r="D137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -3873,7 +3922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -3883,7 +3932,7 @@
       <c r="D139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -3893,7 +3942,7 @@
       <c r="D140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -3903,7 +3952,7 @@
       <c r="D141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -3913,7 +3962,7 @@
       <c r="D142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -3923,7 +3972,7 @@
       <c r="D143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -3933,7 +3982,7 @@
       <c r="D144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -3943,7 +3992,7 @@
       <c r="D145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -3953,7 +4002,7 @@
       <c r="D146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -3963,7 +4012,7 @@
       <c r="D147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -3973,7 +4022,7 @@
       <c r="D148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -3983,7 +4032,7 @@
       <c r="D149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -3993,7 +4042,7 @@
       <c r="D150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -4003,7 +4052,7 @@
       <c r="D151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -4013,7 +4062,7 @@
       <c r="D152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -4023,7 +4072,7 @@
       <c r="D153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -4033,7 +4082,7 @@
       <c r="D154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -4043,7 +4092,7 @@
       <c r="D155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -4053,7 +4102,7 @@
       <c r="D156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -4063,7 +4112,7 @@
       <c r="D157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -4073,7 +4122,7 @@
       <c r="D158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -4083,7 +4132,7 @@
       <c r="D159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -4093,7 +4142,7 @@
       <c r="D160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -4103,7 +4152,7 @@
       <c r="D161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -4113,7 +4162,7 @@
       <c r="D162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -4123,7 +4172,7 @@
       <c r="D163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -4133,7 +4182,7 @@
       <c r="D164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -4143,7 +4192,7 @@
       <c r="D165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -4153,7 +4202,7 @@
       <c r="D166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -4163,7 +4212,7 @@
       <c r="D167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -4173,7 +4222,7 @@
       <c r="D168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -4183,7 +4232,7 @@
       <c r="D169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -4193,7 +4242,7 @@
       <c r="D170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -4203,7 +4252,7 @@
       <c r="D171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -4213,7 +4262,7 @@
       <c r="D172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -4223,7 +4272,7 @@
       <c r="D173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -4233,7 +4282,7 @@
       <c r="D174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>179</v>
       </c>
@@ -4243,7 +4292,7 @@
       <c r="D175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>186</v>
       </c>
@@ -4253,7 +4302,7 @@
       <c r="D176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>187</v>
       </c>
@@ -4263,7 +4312,7 @@
       <c r="D177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>188</v>
       </c>
@@ -4273,7 +4322,7 @@
       <c r="D178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>189</v>
       </c>
@@ -4283,7 +4332,7 @@
       <c r="D179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>190</v>
       </c>
@@ -4293,7 +4342,7 @@
       <c r="D180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>191</v>
       </c>
@@ -4303,7 +4352,7 @@
       <c r="D181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>198</v>
       </c>
@@ -4313,7 +4362,7 @@
       <c r="D182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>199</v>
       </c>
@@ -4323,7 +4372,7 @@
       <c r="D183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>200</v>
       </c>
@@ -4333,7 +4382,7 @@
       <c r="D184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>201</v>
       </c>
@@ -4343,7 +4392,7 @@
       <c r="D185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>202</v>
       </c>
@@ -4353,7 +4402,7 @@
       <c r="D186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>203</v>
       </c>
@@ -4363,7 +4412,7 @@
       <c r="D187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>204</v>
       </c>
@@ -4373,7 +4422,7 @@
       <c r="D188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>205</v>
       </c>
@@ -4383,7 +4432,7 @@
       <c r="D189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>206</v>
       </c>
@@ -4393,7 +4442,7 @@
       <c r="D190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>207</v>
       </c>
@@ -4403,7 +4452,7 @@
       <c r="D191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>208</v>
       </c>
@@ -4413,7 +4462,7 @@
       <c r="D192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>209</v>
       </c>
@@ -4423,7 +4472,7 @@
       <c r="D193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>210</v>
       </c>
@@ -4433,7 +4482,7 @@
       <c r="D194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>211</v>
       </c>
@@ -4443,7 +4492,7 @@
       <c r="D195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>212</v>
       </c>
@@ -4453,7 +4502,7 @@
       <c r="D196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>213</v>
       </c>
@@ -4463,7 +4512,7 @@
       <c r="D197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>214</v>
       </c>
@@ -4473,7 +4522,7 @@
       <c r="D198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>215</v>
       </c>
@@ -4483,7 +4532,7 @@
       <c r="D199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>216</v>
       </c>
@@ -4493,7 +4542,7 @@
       <c r="D200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
       <c r="D201" s="1"/>
     </row>
@@ -4513,7 +4562,7 @@
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4526,7 +4575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="375">
   <si>
     <t>Two Sum   </t>
   </si>
@@ -1631,6 +1631,14 @@
   </si>
   <si>
     <t>在移除之后就判断是不是重复数字，如果是，则跳过就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于爬台阶的DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维数组来存，需要考虑当前位是否为0，为0，则找后一位，否则找后两位。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2017,7 +2025,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3431,14 +3439,20 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="C91" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -2024,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="269">
   <si>
     <t>Two Sum   </t>
   </si>
@@ -88,141 +88,6 @@
   <si>
     <t>Substring with Concatenation of All Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Longest Consecutive Sequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sum Root to Leaf Numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Surrounded Regions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Palindrome Partitioning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Palindrome Partitioning II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Word Break</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Max Points on a Line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Min Stack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Repeated DNA Sequences</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
   </si>
   <si>
     <t>数组</t>
@@ -958,234 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Combination Sum III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kth Largest Element in an Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Shortest Palindrome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>House Robber II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Search II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add and Search Word - Data structure design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Course Schedule II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Size Subarray Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Course Schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Linked List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isomorphic Strings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count Primes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Linked List Elements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Happy Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bitwise AND of Numbers Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Right Side View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>House Robber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of 1 Bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Words in a String II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Largest Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dungeon Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Search Tree Iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factorial Trailing Zeroes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel Sheet Column Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two Sum III - Data structure design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotate Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Majority Element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel Sheet Column Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two Sum II - Input array is sorted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fraction to Recurring Decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Compare Version Numbers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing Ranges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Peak Element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One Edit Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intersection of Two Linked Lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Longest Substring with At Most Two Distinct Characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read N Characters Given Read4 II - Call multiple times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Read N Characters Given Read4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Upside Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Minimum in Rotated Sorted Array II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluate Reverse Polish Notation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Product Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Minimum in Rotated Sorted Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text Justification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1274,214 +911,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Single Number II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Candy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas Station</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clone Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Copy List with Random Pointer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Word Break II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linked List Cycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linked List Cycle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reorder List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Preorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Postorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insertion Sort List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Words in a String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Word Ladder II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Maximum Path Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pascal's Triangle II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pascal's Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Populating Next Right Pointers in Each Node II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Populating Next Right Pointers in Each Node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinct Subsequences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flatten Binary Tree to Linked List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path Sum II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Depth of Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balanced Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert Sorted List to Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert Sorted Array to Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Zigzag Level Order Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symmetric Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recover Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Validate Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interleaving String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Binary Search Trees II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree Inorder Traversal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restore IP Addresses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Linked List II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decode Ways</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1639,6 +1072,14 @@
   </si>
   <si>
     <t>一维数组来存，需要考虑当前位是否为0，为0，则找后一位，否则找后两位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求1-N中1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从个位开始计算，一个数记录高位，一个数记录低位，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2022,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2065,16 +1506,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -2086,13 +1527,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -2101,16 +1542,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -2122,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -2140,13 +1581,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2155,17 +1596,17 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -2174,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -2198,14 +1639,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2217,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="1"/>
@@ -2230,11 +1671,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -2243,17 +1684,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -2262,14 +1703,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -2281,14 +1722,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -2300,11 +1741,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -2313,14 +1754,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -2329,20 +1770,20 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -2353,11 +1794,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -2366,17 +1807,17 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -2385,11 +1826,11 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -2401,14 +1842,14 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -2417,14 +1858,14 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -2436,14 +1877,14 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -2455,14 +1896,14 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -2481,17 +1922,17 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -2500,17 +1941,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -2519,14 +1960,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -2535,17 +1976,17 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -2564,14 +2005,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -2580,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
@@ -2593,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
@@ -2606,14 +2047,14 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -2625,11 +2066,11 @@
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -2638,14 +2079,14 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -2654,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
@@ -2664,17 +2105,17 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -2683,14 +2124,14 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2699,14 +2140,14 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -2715,7 +2156,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="D41" s="1"/>
       <c r="G41" s="1"/>
@@ -2725,7 +2166,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
@@ -2735,17 +2176,17 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2754,7 +2195,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="D44" s="1"/>
       <c r="G44" s="1"/>
@@ -2764,7 +2205,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="D45" s="1"/>
       <c r="G45" s="1"/>
@@ -2774,14 +2215,14 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -2790,17 +2231,17 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2809,17 +2250,17 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2828,11 +2269,11 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2844,14 +2285,14 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2870,7 +2311,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="D52" s="1"/>
       <c r="G52" s="1"/>
@@ -2880,14 +2321,14 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2896,17 +2337,17 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2918,11 +2359,11 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2931,17 +2372,17 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2950,7 +2391,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="D57" s="1"/>
       <c r="G57" s="1"/>
@@ -2963,11 +2404,11 @@
         <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2976,7 +2417,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="D59" s="1"/>
       <c r="G59" s="1"/>
@@ -2989,14 +2430,14 @@
         <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -3005,14 +2446,14 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -3021,20 +2462,20 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3042,20 +2483,20 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -3063,14 +2504,14 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -3079,7 +2520,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D65" s="1"/>
       <c r="G65" s="1"/>
@@ -3089,14 +2530,14 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -3105,17 +2546,17 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -3124,7 +2565,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="D68" s="1"/>
       <c r="G68" s="1"/>
@@ -3134,11 +2575,11 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -3147,14 +2588,14 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -3163,14 +2604,14 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -3179,7 +2620,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="D72" s="1"/>
       <c r="G72" s="1"/>
@@ -3189,14 +2630,14 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -3205,14 +2646,14 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -3221,17 +2662,17 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -3240,7 +2681,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="D76" s="1"/>
       <c r="G76" s="1"/>
@@ -3250,14 +2691,14 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -3266,17 +2707,17 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -3285,17 +2726,17 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G79" s="1"/>
     </row>
@@ -3304,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="D80" s="1"/>
       <c r="G80" s="1"/>
@@ -3314,7 +2755,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="D81" s="1"/>
       <c r="G81" s="1"/>
@@ -3324,7 +2765,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D82" s="1"/>
       <c r="G82" s="1"/>
@@ -3334,11 +2775,11 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -3347,7 +2788,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D84" s="1"/>
       <c r="G84" s="1"/>
@@ -3357,7 +2798,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="D85" s="1"/>
       <c r="G85" s="1"/>
@@ -3367,14 +2808,14 @@
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -3383,7 +2824,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="D87" s="1"/>
       <c r="G87" s="1"/>
@@ -3393,14 +2834,14 @@
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -3409,14 +2850,14 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -3425,17 +2866,17 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -3444,1121 +2885,357 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>334</v>
+        <v>226</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
-        <v>93</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
-        <v>94</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>332</v>
-      </c>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
       <c r="D94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
-        <v>95</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>331</v>
-      </c>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
       <c r="D95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
-        <v>96</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>330</v>
-      </c>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
       <c r="D96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>97</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>329</v>
-      </c>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
       <c r="D97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>98</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>328</v>
-      </c>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
       <c r="D98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
-        <v>99</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>327</v>
-      </c>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
       <c r="D99" s="1"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
-        <v>100</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="D100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
-        <v>101</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="D101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
-        <v>102</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>324</v>
-      </c>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
       <c r="D102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
-        <v>103</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>323</v>
-      </c>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
       <c r="D103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
-        <v>104</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>322</v>
-      </c>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
       <c r="D104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>321</v>
-      </c>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
       <c r="D105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
-        <v>106</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>320</v>
-      </c>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
       <c r="D106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
-        <v>107</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>319</v>
-      </c>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
       <c r="D107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
-        <v>108</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>318</v>
-      </c>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
       <c r="D108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
-        <v>109</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>317</v>
-      </c>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
       <c r="D109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
-        <v>110</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>316</v>
-      </c>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
       <c r="D110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
-        <v>111</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>315</v>
-      </c>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
       <c r="D111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <v>112</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="D112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
-        <v>113</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="A113" s="1"/>
       <c r="D113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
-        <v>114</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>312</v>
-      </c>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="1"/>
       <c r="D114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
-        <v>115</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>311</v>
-      </c>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="1"/>
       <c r="D115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
-        <v>116</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>310</v>
-      </c>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="1"/>
       <c r="D116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
-        <v>117</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>309</v>
-      </c>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="1"/>
       <c r="D117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
-        <v>118</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>308</v>
-      </c>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="1"/>
       <c r="D118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
-        <v>119</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>306</v>
-      </c>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
       <c r="D119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
-        <v>120</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="D120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
-        <v>121</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>305</v>
-      </c>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="1"/>
       <c r="D121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
-        <v>122</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>304</v>
-      </c>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
       <c r="D122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
-        <v>123</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>303</v>
-      </c>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="1"/>
       <c r="D123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
-        <v>124</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>302</v>
-      </c>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="1"/>
       <c r="D124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
-        <v>125</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="D125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
-        <v>126</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="D126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
-        <v>127</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="D127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
-        <v>128</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="1"/>
       <c r="D128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A129" s="1">
-        <v>129</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="1"/>
       <c r="D129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
-        <v>130</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="1"/>
       <c r="D130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="1">
-        <v>131</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="1"/>
       <c r="D131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
-        <v>132</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="1"/>
       <c r="D132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
-        <v>133</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="D133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
-        <v>134</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="D134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="1">
-        <v>135</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="D135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="1">
-        <v>136</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="D136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="1">
-        <v>137</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="D137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
-        <v>138</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>61</v>
-      </c>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
-        <v>139</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="D139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
-        <v>140</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="D140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
-        <v>141</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>290</v>
-      </c>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="1"/>
       <c r="D141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A142" s="1">
-        <v>142</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>291</v>
-      </c>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" s="1"/>
       <c r="D142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="1">
-        <v>143</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="D143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
-        <v>144</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>293</v>
-      </c>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="1"/>
       <c r="D144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="1">
-        <v>145</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>294</v>
-      </c>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="1"/>
       <c r="D145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
-        <v>146</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="D146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A147" s="1">
-        <v>147</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>296</v>
-      </c>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147" s="1"/>
       <c r="D147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
-        <v>148</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="D148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A149" s="1">
-        <v>149</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149" s="1"/>
       <c r="D149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
-        <v>150</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>258</v>
-      </c>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150" s="1"/>
       <c r="D150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A151" s="1">
-        <v>151</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>298</v>
-      </c>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151" s="1"/>
       <c r="D151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A152" s="1">
-        <v>152</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>259</v>
-      </c>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" s="1"/>
       <c r="D152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A153" s="1">
-        <v>153</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>260</v>
-      </c>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153" s="1"/>
       <c r="D153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="1">
-        <v>154</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>257</v>
-      </c>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A154" s="1"/>
       <c r="D154" s="1"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A155" s="1">
-        <v>155</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A156" s="1">
-        <v>156</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A157" s="1">
-        <v>157</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A158" s="1">
-        <v>158</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D158" s="1"/>
-      <c r="G158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A159" s="1">
-        <v>159</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D159" s="1"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A160" s="1">
-        <v>160</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D160" s="1"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A161" s="1">
-        <v>161</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D161" s="1"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A162" s="1">
-        <v>162</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A163" s="1">
-        <v>163</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A164" s="1">
-        <v>164</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D164" s="1"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A165" s="1">
-        <v>165</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D165" s="1"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A166" s="1">
-        <v>166</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D166" s="1"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A167" s="1">
-        <v>167</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D167" s="1"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A168" s="1">
-        <v>168</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A169" s="1">
-        <v>169</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D169" s="1"/>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A170" s="1">
-        <v>170</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D170" s="1"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A171" s="1">
-        <v>171</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A172" s="1">
-        <v>172</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="G172" s="1"/>
-    </row>
-    <row r="173" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A173" s="1">
-        <v>173</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D173" s="1"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A174" s="1">
-        <v>174</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D174" s="1"/>
-      <c r="G174" s="1"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A175" s="1">
-        <v>179</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D175" s="1"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A176" s="1">
-        <v>186</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D176" s="1"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A177" s="1">
-        <v>187</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="1">
-        <v>188</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A179" s="1">
-        <v>189</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A180" s="1">
-        <v>190</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D180" s="1"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A181" s="1">
-        <v>191</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D181" s="1"/>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A182" s="1">
-        <v>198</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D182" s="1"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A183" s="1">
-        <v>199</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D183" s="1"/>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A184" s="1">
-        <v>200</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D184" s="1"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A185" s="1">
-        <v>201</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D185" s="1"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A186" s="1">
-        <v>202</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D186" s="1"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A187" s="1">
-        <v>203</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D187" s="1"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A188" s="1">
-        <v>204</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A189" s="1">
-        <v>205</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D189" s="1"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A190" s="1">
-        <v>206</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D190" s="1"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="1">
-        <v>207</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D191" s="1"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A192" s="1">
-        <v>208</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D192" s="1"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A193" s="1">
-        <v>209</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D193" s="1"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A194" s="1">
-        <v>210</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D194" s="1"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="1">
-        <v>211</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D195" s="1"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A196" s="1">
-        <v>212</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A197" s="1">
-        <v>213</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A198" s="1">
-        <v>214</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D198" s="1"/>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A199" s="1">
-        <v>215</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A200" s="1">
-        <v>216</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D200" s="1"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A201" s="1"/>
-      <c r="D201" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/leetcode总结.xlsx
+++ b/src/leetcode总结.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B849270-734D-4383-AF73-87DCF4DBF836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="270">
   <si>
     <t>Two Sum   </t>
   </si>
@@ -178,10 +179,6 @@
   </si>
   <si>
     <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊用例太多，注意各种特殊情况，判断正负，判断溢出，判断无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1080,13 +1077,21 @@
   </si>
   <si>
     <t>从个位开始计算，一个数记录高位，一个数记录低位，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊用例太多，注意各种特殊情况，判断正负，判断溢出，判断无效，去空格后是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有就是算一半就进行比较，但是效果并不会好太多，毕竟int整型总共才11位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1158,6 +1163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1462,24 +1470,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1501,12 +1509,12 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
@@ -1519,7 +1527,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1537,12 +1545,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1555,7 +1563,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1573,7 +1581,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1591,12 +1599,12 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -1610,12 +1618,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
@@ -1624,14 +1632,14 @@
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1639,18 +1647,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G9" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1658,12 +1668,12 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1671,50 +1681,50 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1722,18 +1732,18 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -1741,52 +1751,52 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1794,47 +1804,47 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -1842,34 +1852,34 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1877,18 +1887,18 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1896,18 +1906,18 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1917,80 +1927,80 @@
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2000,33 +2010,33 @@
       <c r="D30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -2034,12 +2044,12 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -2047,18 +2057,18 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -2066,218 +2076,218 @@
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -2285,18 +2295,18 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -2306,52 +2316,52 @@
       <c r="D51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -2359,44 +2369,44 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -2404,25 +2414,25 @@
         <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -2430,810 +2440,810 @@
         <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>138</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="D94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="D95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="D96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="D97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="D98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="D99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="D100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="D101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="D102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="D103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="D104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="D105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="D106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="D107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="D108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="D109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="D110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="D111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="D112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="D113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="D114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="D115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="D116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="D117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="D118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="D119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="D120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="D121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="D122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="D123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="D124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="D125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="D126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="D127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="D128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="D129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="D130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="D131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="D132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="D133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="D134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="D135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="D136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="D137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="D138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="D139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="D140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="D141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="D142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="D143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="D144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="D145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="D146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="D147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="D148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="D149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="D150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="D151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="D152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="D153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="D154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="D155" s="1"/>
     </row>
@@ -3246,14 +3256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,12 +3271,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
